--- a/excel/s_totem.xlsx
+++ b/excel/s_totem.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="24735" windowHeight="12045"/>
   </bookViews>
   <sheets>
-    <sheet name="totem" sheetId="1" r:id="rId1"/>
+    <sheet name="totemConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1383,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1709,6 +1709,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>73</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
